--- a/PlennyFrance.xlsx
+++ b/PlennyFrance.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{EA848AF9-E478-4AC3-93B7-DF8D33F834FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B7DF952-DEE2-4D5E-BAA4-4F6016FF63F3}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1125" windowWidth="18630" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="1125" windowWidth="18630" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Dosage" sheetId="1" r:id="rId1"/>
     <sheet name="Mifflin-St Jeor" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>PlennyShake</t>
   </si>
@@ -204,12 +203,15 @@
   </si>
   <si>
     <t>Perte de poids rapide activité faible (-25%)</t>
+  </si>
+  <si>
+    <t>PlennyShake 2020 (3.0) : 416 calories / 100 grammes, sachet 960 grammes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -694,7 +696,7 @@
         <xdr:cNvPr id="4" name="ZoneTexte 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC44ED77-9FFC-46B2-AB79-D8AEE43ED747}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC44ED77-9FFC-46B2-AB79-D8AEE43ED747}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -754,7 +756,7 @@
         <xdr:cNvPr id="5" name="Image 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B91EEDE-94AE-42C2-8752-12FBD70C30E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B91EEDE-94AE-42C2-8752-12FBD70C30E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,7 +771,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" xmlns="" r:id="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -807,7 +809,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8D9C72-4A73-4567-8271-BAC2FE3273F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B8D9C72-4A73-4567-8271-BAC2FE3273F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -867,7 +869,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502957C6-AAAA-4B9A-B5FA-EF384B6DFD16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{502957C6-AAAA-4B9A-B5FA-EF384B6DFD16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -882,7 +884,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" xmlns="" r:id="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1194,18 +1196,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,6 +1302,9 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -1455,20 +1460,20 @@
         <v>2802.9291497189747</v>
       </c>
       <c r="C18" s="35">
-        <f t="shared" ref="C18:C19" si="1">B18/(B4/100)</f>
-        <v>419.84738764127195</v>
+        <f>B18/(B3/100)</f>
+        <v>668.95683764175999</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" ref="D18:D19" si="2">B18/3</f>
+        <f t="shared" ref="D18:D19" si="1">B18/3</f>
         <v>934.30971657299153</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" ref="E18:E19" si="3">C18/3</f>
-        <v>139.94912921375732</v>
+        <f t="shared" ref="E18:E19" si="2">C18/3</f>
+        <v>222.98561254725334</v>
       </c>
       <c r="F18" s="13">
         <f>E18/C2</f>
-        <v>2.5445296220683149</v>
+        <v>4.054283864495515</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1480,20 +1485,20 @@
         <v>3119.3888924291814</v>
       </c>
       <c r="C19" s="35">
+        <f>B19/(B3/100)</f>
+        <v>744.48422253679735</v>
+      </c>
+      <c r="D19" s="20">
         <f t="shared" si="1"/>
-        <v>155.74983735079442</v>
-      </c>
-      <c r="D19" s="20">
+        <v>1039.7962974763939</v>
+      </c>
+      <c r="E19" s="12">
         <f t="shared" si="2"/>
-        <v>1039.7962974763939</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" si="3"/>
-        <v>51.916612450264807</v>
+        <v>248.16140751226578</v>
       </c>
       <c r="F19" s="13">
         <f>E19/C2</f>
-        <v>0.94393840818663288</v>
+        <v>4.5120255911321054</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,11 +1528,11 @@
         <v>440.21675767393236</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" ref="D21:E24" si="4">B21/3</f>
+        <f t="shared" ref="D21:E24" si="3">B21/3</f>
         <v>614.8360715512589</v>
       </c>
       <c r="E21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>146.73891922464412</v>
       </c>
       <c r="F21" s="11">
@@ -1548,11 +1553,11 @@
         <v>388.42655088876387</v>
       </c>
       <c r="D22" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>542.50241607464022</v>
       </c>
       <c r="E22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>129.47551696292129</v>
       </c>
       <c r="F22" s="11">
@@ -1573,11 +1578,11 @@
         <v>504.41503483471411</v>
       </c>
       <c r="D23" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>704.49966531915072</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>168.1383449449047</v>
       </c>
       <c r="F23" s="11">
@@ -1598,11 +1603,11 @@
         <v>445.07208956004189</v>
       </c>
       <c r="D24" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>621.61735175219189</v>
       </c>
       <c r="E24" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>148.35736318668063</v>
       </c>
       <c r="F24" s="13">
@@ -1623,11 +1628,11 @@
         <v>568.61331199549602</v>
       </c>
       <c r="D25" s="19">
-        <f t="shared" ref="D25:D26" si="5">B25/3</f>
+        <f t="shared" ref="D25:D26" si="4">B25/3</f>
         <v>794.16325908704277</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" ref="E25:E26" si="6">C25/3</f>
+        <f t="shared" ref="E25:E26" si="5">C25/3</f>
         <v>189.53777066516534</v>
       </c>
       <c r="F25" s="11">
@@ -1648,11 +1653,11 @@
         <v>501.71762823131996</v>
       </c>
       <c r="D26" s="20">
+        <f t="shared" si="4"/>
+        <v>700.73228742974368</v>
+      </c>
+      <c r="E26" s="12">
         <f t="shared" si="5"/>
-        <v>700.73228742974368</v>
-      </c>
-      <c r="E26" s="12">
-        <f t="shared" si="6"/>
         <v>167.23920941044</v>
       </c>
       <c r="F26" s="13">
@@ -1673,11 +1678,11 @@
         <v>632.81158915627782</v>
       </c>
       <c r="D27" s="19">
-        <f t="shared" ref="D27:D28" si="7">B27/3</f>
+        <f t="shared" ref="D27:D28" si="6">B27/3</f>
         <v>883.82685285493471</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" ref="E27:E28" si="8">C27/3</f>
+        <f t="shared" ref="E27:E28" si="7">C27/3</f>
         <v>210.93719638542595</v>
       </c>
       <c r="F27" s="11">
@@ -1698,11 +1703,11 @@
         <v>558.36316690259798</v>
       </c>
       <c r="D28" s="20">
+        <f t="shared" si="6"/>
+        <v>779.84722310729524</v>
+      </c>
+      <c r="E28" s="12">
         <f t="shared" si="7"/>
-        <v>779.84722310729524</v>
-      </c>
-      <c r="E28" s="12">
-        <f t="shared" si="8"/>
         <v>186.12105563419934</v>
       </c>
       <c r="F28" s="13">
@@ -1721,15 +1726,15 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D20:F20"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Boy,Girl"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A29" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{934068A9-70C5-49CC-84AC-CE29B84C7A7D}"/>
+    <hyperlink ref="A15" r:id="rId1"/>
+    <hyperlink ref="A29" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1738,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40243AED-0FAB-46B9-A79A-EEA31D1254D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2109,13 +2114,13 @@
     <mergeCell ref="D18:F18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{6C1ABDA7-960A-4D95-8D5A-B154BB990DC1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Boy,Girl"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" location="BMR_estimation_formulas" xr:uid="{26BB8CF4-B45B-49CC-8DBC-8790E3C03721}"/>
-    <hyperlink ref="A23" r:id="rId2" xr:uid="{793FB8DB-59A3-43BD-9A9A-498E4013D8AF}"/>
+    <hyperlink ref="A15" r:id="rId1" location="BMR_estimation_formulas"/>
+    <hyperlink ref="A23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
